--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
@@ -76,7 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Ccl4</t>
@@ -531,10 +531,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>330.777059</v>
+        <v>0.2195956666666667</v>
       </c>
       <c r="H2">
-        <v>992.3311769999999</v>
+        <v>0.658787</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>3809.635908262648</v>
+        <v>2.529134092797555</v>
       </c>
       <c r="R2">
-        <v>34286.72317436383</v>
+        <v>22.762206835178</v>
       </c>
       <c r="S2">
         <v>1</v>
